--- a/Database.xlsx
+++ b/Database.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowHeight="17610"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Database" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -22,33 +22,42 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Attraction1</t>
+    <t>Type</t>
   </si>
   <si>
-    <t>Attraction2</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>Food1</t>
-  </si>
-  <si>
-    <t>Food2</t>
-  </si>
-  <si>
-    <t>Food3</t>
+    <t>Link</t>
   </si>
   <si>
     <t>11am</t>
   </si>
   <si>
+    <t>Attraction</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11.25"/>
-        <color rgb="FF000000"/>
-        <rFont val="docs-Calibri"/>
+        <color rgb="FF1F201E"/>
+        <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>http://xhslink.com/XdQZhC</t>
+      <t>第二市場</t>
     </r>
+  </si>
+  <si>
+    <t>http://xhslink.com/XdQZhC</t>
+  </si>
+  <si>
+    <t>12pm</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>Food</t>
   </si>
 </sst>
 </file>
@@ -71,8 +80,8 @@
     </font>
     <font>
       <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="docs-Calibri"/>
+      <color rgb="FF1F201E"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1210,19 +1219,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="11.5714285714286" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,33 +1243,157 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="16.5" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
